--- a/grupos/2ALCM - Estadisticos 20202.xlsx
+++ b/grupos/2ALCM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="176">
   <si>
     <t>Materia</t>
   </si>
@@ -245,280 +245,280 @@
     <t>PLIEGO</t>
   </si>
   <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>SORIA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>CALIHUA</t>
+  </si>
+  <si>
+    <t>TEHUINTLE</t>
+  </si>
+  <si>
+    <t>VANELY JUDITH</t>
+  </si>
+  <si>
+    <t>ARIEL</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>VICTOR GAMALIEL</t>
+  </si>
+  <si>
+    <t>LAILA MANE</t>
+  </si>
+  <si>
+    <t>ANGEL EMMANUEL</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>ALVARADO</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>JUSTO</t>
+  </si>
+  <si>
+    <t>LASTRE</t>
+  </si>
+  <si>
+    <t>LARRINAGA</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>MARIANO</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
+    <t>PONCE</t>
+  </si>
+  <si>
     <t>RAMOS</t>
   </si>
   <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>SORIA</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>LORENZO</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>CALIHUA</t>
-  </si>
-  <si>
-    <t>TEHUINTLE</t>
-  </si>
-  <si>
-    <t>VANELY JUDITH</t>
-  </si>
-  <si>
-    <t>ARIEL</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>VICTOR GAMALIEL</t>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>TLECUILE</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>CIRUELO</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>TEQUIHUATLE</t>
+  </si>
+  <si>
+    <t>CONDE</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>SALGADO</t>
+  </si>
+  <si>
+    <t>ENRIQUEZ</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>SANTES</t>
+  </si>
+  <si>
+    <t>MARINERO</t>
+  </si>
+  <si>
+    <t>ACEVEDO</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>QUIAHUA</t>
+  </si>
+  <si>
+    <t>VALLEJO</t>
+  </si>
+  <si>
+    <t>TETLA</t>
+  </si>
+  <si>
+    <t>FATIMA</t>
+  </si>
+  <si>
+    <t>JOSSELIN GUADALUPE</t>
+  </si>
+  <si>
+    <t>JOSE ISAIAS</t>
+  </si>
+  <si>
+    <t>JENNIFER</t>
+  </si>
+  <si>
+    <t>FERNANDA</t>
+  </si>
+  <si>
+    <t>JUAN ALBERTO</t>
+  </si>
+  <si>
+    <t>JENIFER</t>
+  </si>
+  <si>
+    <t>JESSICA</t>
+  </si>
+  <si>
+    <t>VICTORINO</t>
+  </si>
+  <si>
+    <t>GERMAN ISAI</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>ARTURO</t>
+  </si>
+  <si>
+    <t>YAZMIN</t>
+  </si>
+  <si>
+    <t>EVELYN</t>
+  </si>
+  <si>
+    <t>ATENEA</t>
+  </si>
+  <si>
+    <t>GONZALO FEDERICO</t>
+  </si>
+  <si>
+    <t>MERARY MADAY</t>
+  </si>
+  <si>
+    <t>GENARO RAFAEL</t>
+  </si>
+  <si>
+    <t>JAQUELINE</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>PERLA MARITZA</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>LISBETH ESMERALDA</t>
+  </si>
+  <si>
+    <t>ALETHIA LUCIA</t>
   </si>
   <si>
     <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>LAILA MANE</t>
-  </si>
-  <si>
-    <t>ANGEL EMMANUEL</t>
-  </si>
-  <si>
-    <t>GABRIELA</t>
-  </si>
-  <si>
-    <t>ALVARADO</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>CASTELLANOS</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>JUSTO</t>
-  </si>
-  <si>
-    <t>LASTRE</t>
-  </si>
-  <si>
-    <t>LARRINAGA</t>
-  </si>
-  <si>
-    <t>LIMA</t>
-  </si>
-  <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
-    <t>MARIANO</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>OLTEHUA</t>
-  </si>
-  <si>
-    <t>PONCE</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>TLECUILE</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>CIRUELO</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>TEQUIHUATLE</t>
-  </si>
-  <si>
-    <t>CONDE</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
-    <t>GALEOTE</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>SALGADO</t>
-  </si>
-  <si>
-    <t>ENRIQUEZ</t>
-  </si>
-  <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
-    <t>SANTES</t>
-  </si>
-  <si>
-    <t>MARINERO</t>
-  </si>
-  <si>
-    <t>ACEVEDO</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>QUIAHUA</t>
-  </si>
-  <si>
-    <t>VALLEJO</t>
-  </si>
-  <si>
-    <t>TETLA</t>
-  </si>
-  <si>
-    <t>FATIMA</t>
-  </si>
-  <si>
-    <t>JOSSELIN GUADALUPE</t>
-  </si>
-  <si>
-    <t>JOSE ISAIAS</t>
-  </si>
-  <si>
-    <t>JENNIFER</t>
-  </si>
-  <si>
-    <t>FERNANDA</t>
-  </si>
-  <si>
-    <t>JUAN ALBERTO</t>
-  </si>
-  <si>
-    <t>JENIFER</t>
-  </si>
-  <si>
-    <t>JESSICA</t>
-  </si>
-  <si>
-    <t>VICTORINO</t>
-  </si>
-  <si>
-    <t>GERMAN ISAI</t>
-  </si>
-  <si>
-    <t>MARIA ISABEL</t>
-  </si>
-  <si>
-    <t>ARTURO</t>
-  </si>
-  <si>
-    <t>YAZMIN</t>
-  </si>
-  <si>
-    <t>EVELYN</t>
-  </si>
-  <si>
-    <t>ATENEA</t>
-  </si>
-  <si>
-    <t>GONZALO FEDERICO</t>
-  </si>
-  <si>
-    <t>MERARY MADAY</t>
-  </si>
-  <si>
-    <t>GENARO RAFAEL</t>
-  </si>
-  <si>
-    <t>JAQUELINE</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>PERLA MARITZA</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>LISBETH ESMERALDA</t>
-  </si>
-  <si>
-    <t>ALETHIA LUCIA</t>
   </si>
   <si>
     <t>FERNANDO VADHIR</t>
@@ -2696,13 +2696,13 @@
         <v>5</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R25">
         <v>-1</v>
       </c>
       <c r="S25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T25">
         <v>6</v>
@@ -2714,7 +2714,7 @@
         <v>6</v>
       </c>
       <c r="W25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X25">
         <v>7</v>
@@ -2927,7 +2927,7 @@
         <v>6</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R28">
         <v>-1</v>
@@ -2945,7 +2945,7 @@
         <v>6</v>
       </c>
       <c r="W28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X28">
         <v>7</v>
@@ -3377,7 +3377,7 @@
         <v>7</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N34">
         <v>5</v>
@@ -3389,13 +3389,13 @@
         <v>5</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R34">
         <v>-1</v>
       </c>
       <c r="S34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T34">
         <v>5</v>
@@ -3407,13 +3407,13 @@
         <v>5</v>
       </c>
       <c r="W34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X34">
         <v>9</v>
       </c>
       <c r="Y34">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -4315,25 +4315,25 @@
         <v>41</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>85.37</v>
+        <v>87.8</v>
       </c>
       <c r="G4">
-        <v>14.63</v>
+        <v>12.2</v>
       </c>
       <c r="H4">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4439,7 +4439,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4477,10 +4477,10 @@
         <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -4497,10 +4497,10 @@
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -4517,10 +4517,10 @@
         <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -4537,10 +4537,10 @@
         <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -4551,27 +4551,27 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920246</v>
+        <v>20330051920247</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920247</v>
+        <v>20330051920251</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -4580,7 +4580,7 @@
         <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920251</v>
+        <v>20330051920255</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -4600,32 +4600,12 @@
         <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>20330051920255</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4671,10 +4651,10 @@
         <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -4688,10 +4668,10 @@
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4705,10 +4685,10 @@
         <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -4722,10 +4702,10 @@
         <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -4733,16 +4713,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920246</v>
+        <v>20330051920247</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4750,7 +4730,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920247</v>
+        <v>20330051920251</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -4759,7 +4739,7 @@
         <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4767,7 +4747,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920251</v>
+        <v>20330051920255</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -4776,7 +4756,7 @@
         <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4784,27 +4764,27 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920255</v>
+        <v>20330051920187</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920187</v>
+        <v>20330051920221</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>119</v>
@@ -4818,10 +4798,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920221</v>
+        <v>20330051920374</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
         <v>120</v>
@@ -4835,10 +4815,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920374</v>
+        <v>20330051920223</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
         <v>121</v>
@@ -4852,13 +4832,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920223</v>
+        <v>20330051920224</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
         <v>146</v>
@@ -4869,13 +4849,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920224</v>
+        <v>20330051920225</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
         <v>147</v>
@@ -4886,10 +4866,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920225</v>
+        <v>20330051920375</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
         <v>123</v>
@@ -4903,13 +4883,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920375</v>
+        <v>20330051920226</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
         <v>149</v>
@@ -4920,13 +4900,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920226</v>
+        <v>20330051920227</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
         <v>150</v>
@@ -4937,10 +4917,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920227</v>
+        <v>20330051920228</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
         <v>125</v>
@@ -4954,10 +4934,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920228</v>
+        <v>20330051920229</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
         <v>126</v>
@@ -4971,10 +4951,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920229</v>
+        <v>20330051920230</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
         <v>127</v>
@@ -4988,10 +4968,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920230</v>
+        <v>20330051920231</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
         <v>128</v>
@@ -5005,13 +4985,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920231</v>
+        <v>20330051920232</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
         <v>155</v>
@@ -5022,13 +5002,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920232</v>
+        <v>20330051920233</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
         <v>156</v>
@@ -5039,10 +5019,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920233</v>
+        <v>20330051920234</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
         <v>130</v>
@@ -5056,10 +5036,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920234</v>
+        <v>20330051920376</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
         <v>131</v>
@@ -5073,10 +5053,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920376</v>
+        <v>20330051920236</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
         <v>132</v>
@@ -5090,10 +5070,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920236</v>
+        <v>20330051920237</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
         <v>133</v>
@@ -5107,10 +5087,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920237</v>
+        <v>20330051920238</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
         <v>134</v>
@@ -5124,13 +5104,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920238</v>
+        <v>20330051920239</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
         <v>162</v>
@@ -5141,13 +5121,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920239</v>
+        <v>20330051920241</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
         <v>163</v>
@@ -5158,13 +5138,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920241</v>
+        <v>20330051920243</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
         <v>164</v>
@@ -5175,13 +5155,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920243</v>
+        <v>20330051920245</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="D32" t="s">
         <v>165</v>
@@ -5192,13 +5172,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920245</v>
+        <v>20330051920246</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
         <v>166</v>
@@ -5212,10 +5192,10 @@
         <v>20330051920248</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
         <v>167</v>
@@ -5229,10 +5209,10 @@
         <v>20330051920249</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
         <v>168</v>
@@ -5246,10 +5226,10 @@
         <v>20330051920250</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" t="s">
         <v>169</v>
@@ -5263,10 +5243,10 @@
         <v>20330051920252</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
         <v>170</v>
@@ -5280,10 +5260,10 @@
         <v>20330051920253</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
         <v>171</v>
@@ -5297,10 +5277,10 @@
         <v>20330051920256</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
         <v>172</v>
@@ -5314,10 +5294,10 @@
         <v>20330051920257</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D40" t="s">
         <v>173</v>
@@ -5331,10 +5311,10 @@
         <v>20330051920258</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
         <v>174</v>
@@ -5348,10 +5328,10 @@
         <v>20330051920259</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
         <v>175</v>
@@ -5367,7 +5347,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5405,13 +5385,13 @@
         <v>20330051920236</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -5428,13 +5408,13 @@
         <v>20330051920236</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -5454,10 +5434,10 @@
         <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -5477,10 +5457,10 @@
         <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -5494,45 +5474,45 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920246</v>
+        <v>20330051920251</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
         <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920246</v>
+        <v>20330051920251</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
         <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -5540,68 +5520,68 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920251</v>
+        <v>20330051920233</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920251</v>
+        <v>20330051920237</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920233</v>
+        <v>20330051920246</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -5609,47 +5589,24 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920237</v>
+        <v>20330051920259</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920259</v>
-      </c>
-      <c r="B12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12">
         <v>5</v>
       </c>
     </row>

--- a/grupos/2ALCM - Estadisticos 20202.xlsx
+++ b/grupos/2ALCM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="176">
   <si>
     <t>Materia</t>
   </si>
@@ -206,21 +206,21 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Caballero Rosas María Teresa</t>
+  </si>
+  <si>
+    <t>Morales Vallejo Jorge Luis</t>
+  </si>
+  <si>
+    <t>Rosas Aguilar Claudia Leonor</t>
+  </si>
+  <si>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
     <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
-    <t>Caballero Rosas María Teresa</t>
-  </si>
-  <si>
-    <t>Morales Vallejo Jorge Luis</t>
-  </si>
-  <si>
-    <t>Rosas Aguilar Claudia Leonor</t>
-  </si>
-  <si>
-    <t>González Altamirano Victorino Juventino</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -233,307 +233,307 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ALVARADO</t>
+  </si>
+  <si>
     <t>ARELLANO</t>
   </si>
   <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
     <t>CAMARILLO</t>
   </si>
   <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>JUSTO</t>
+  </si>
+  <si>
+    <t>LASTRE</t>
+  </si>
+  <si>
+    <t>LARRINAGA</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>MARIANO</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
     <t>PLIEGO</t>
   </si>
   <si>
+    <t>PONCE</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
     <t>RAMIREZ</t>
   </si>
   <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
     <t>DE LOS SANTOS</t>
   </si>
   <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
+    <t>TLECUILE</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>CIRUELO</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>APALE</t>
   </si>
   <si>
     <t>SORIA</t>
   </si>
   <si>
+    <t>TEQUIHUATLE</t>
+  </si>
+  <si>
+    <t>CONDE</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>SALGADO</t>
+  </si>
+  <si>
+    <t>ENRIQUEZ</t>
+  </si>
+  <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>SANTES</t>
+  </si>
+  <si>
+    <t>MARINERO</t>
+  </si>
+  <si>
+    <t>ACEVEDO</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
     <t>LOPEZ</t>
   </si>
   <si>
-    <t>LORENZO</t>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
   </si>
   <si>
     <t>ZEPAHUA</t>
   </si>
   <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
     <t>CALIHUA</t>
   </si>
   <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>QUIAHUA</t>
+  </si>
+  <si>
     <t>TEHUINTLE</t>
   </si>
   <si>
+    <t>VALLEJO</t>
+  </si>
+  <si>
+    <t>TETLA</t>
+  </si>
+  <si>
+    <t>FATIMA</t>
+  </si>
+  <si>
     <t>VANELY JUDITH</t>
   </si>
   <si>
+    <t>JOSSELIN GUADALUPE</t>
+  </si>
+  <si>
+    <t>JOSE ISAIAS</t>
+  </si>
+  <si>
     <t>ARIEL</t>
   </si>
   <si>
+    <t>JENNIFER</t>
+  </si>
+  <si>
+    <t>FERNANDA</t>
+  </si>
+  <si>
+    <t>JUAN ALBERTO</t>
+  </si>
+  <si>
+    <t>JENIFER</t>
+  </si>
+  <si>
+    <t>JESSICA</t>
+  </si>
+  <si>
+    <t>VICTORINO</t>
+  </si>
+  <si>
+    <t>GERMAN ISAI</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>ARTURO</t>
+  </si>
+  <si>
+    <t>YAZMIN</t>
+  </si>
+  <si>
+    <t>EVELYN</t>
+  </si>
+  <si>
+    <t>ATENEA</t>
+  </si>
+  <si>
+    <t>GONZALO FEDERICO</t>
+  </si>
+  <si>
+    <t>MERARY MADAY</t>
+  </si>
+  <si>
+    <t>GENARO RAFAEL</t>
+  </si>
+  <si>
+    <t>JAQUELINE</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>PERLA MARITZA</t>
+  </si>
+  <si>
     <t>DIEGO</t>
   </si>
   <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>LISBETH ESMERALDA</t>
+  </si>
+  <si>
     <t>VICTOR GAMALIEL</t>
   </si>
   <si>
+    <t>ALETHIA LUCIA</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
     <t>LAILA MANE</t>
   </si>
   <si>
+    <t>FERNANDO VADHIR</t>
+  </si>
+  <si>
+    <t>CYNTHIA AIDEE</t>
+  </si>
+  <si>
+    <t>FABIOLA</t>
+  </si>
+  <si>
     <t>ANGEL EMMANUEL</t>
   </si>
   <si>
+    <t>ARLET</t>
+  </si>
+  <si>
+    <t>ROSARIO</t>
+  </si>
+  <si>
     <t>GABRIELA</t>
-  </si>
-  <si>
-    <t>ALVARADO</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>CASTELLANOS</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>JUSTO</t>
-  </si>
-  <si>
-    <t>LASTRE</t>
-  </si>
-  <si>
-    <t>LARRINAGA</t>
-  </si>
-  <si>
-    <t>LIMA</t>
-  </si>
-  <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
-    <t>MARIANO</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>OLTEHUA</t>
-  </si>
-  <si>
-    <t>PONCE</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>TLECUILE</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>CIRUELO</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>TEQUIHUATLE</t>
-  </si>
-  <si>
-    <t>CONDE</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
-    <t>GALEOTE</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>SALGADO</t>
-  </si>
-  <si>
-    <t>ENRIQUEZ</t>
-  </si>
-  <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
-    <t>SANTES</t>
-  </si>
-  <si>
-    <t>MARINERO</t>
-  </si>
-  <si>
-    <t>ACEVEDO</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>QUIAHUA</t>
-  </si>
-  <si>
-    <t>VALLEJO</t>
-  </si>
-  <si>
-    <t>TETLA</t>
-  </si>
-  <si>
-    <t>FATIMA</t>
-  </si>
-  <si>
-    <t>JOSSELIN GUADALUPE</t>
-  </si>
-  <si>
-    <t>JOSE ISAIAS</t>
-  </si>
-  <si>
-    <t>JENNIFER</t>
-  </si>
-  <si>
-    <t>FERNANDA</t>
-  </si>
-  <si>
-    <t>JUAN ALBERTO</t>
-  </si>
-  <si>
-    <t>JENIFER</t>
-  </si>
-  <si>
-    <t>JESSICA</t>
-  </si>
-  <si>
-    <t>VICTORINO</t>
-  </si>
-  <si>
-    <t>GERMAN ISAI</t>
-  </si>
-  <si>
-    <t>MARIA ISABEL</t>
-  </si>
-  <si>
-    <t>ARTURO</t>
-  </si>
-  <si>
-    <t>YAZMIN</t>
-  </si>
-  <si>
-    <t>EVELYN</t>
-  </si>
-  <si>
-    <t>ATENEA</t>
-  </si>
-  <si>
-    <t>GONZALO FEDERICO</t>
-  </si>
-  <si>
-    <t>MERARY MADAY</t>
-  </si>
-  <si>
-    <t>GENARO RAFAEL</t>
-  </si>
-  <si>
-    <t>JAQUELINE</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>PERLA MARITZA</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>LISBETH ESMERALDA</t>
-  </si>
-  <si>
-    <t>ALETHIA LUCIA</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>FERNANDO VADHIR</t>
-  </si>
-  <si>
-    <t>CYNTHIA AIDEE</t>
-  </si>
-  <si>
-    <t>FABIOLA</t>
-  </si>
-  <si>
-    <t>ARLET</t>
-  </si>
-  <si>
-    <t>ROSARIO</t>
   </si>
   <si>
     <t>SAUL</t>
@@ -1073,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P4">
         <v>9</v>
@@ -1082,7 +1082,7 @@
         <v>8</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S4">
         <v>8</v>
@@ -1150,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P5">
         <v>9</v>
@@ -1159,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="R5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S5">
         <v>7</v>
@@ -1218,7 +1218,7 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M6">
         <v>7</v>
@@ -1227,7 +1227,7 @@
         <v>6</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P6">
         <v>6</v>
@@ -1236,7 +1236,7 @@
         <v>9</v>
       </c>
       <c r="R6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S6">
         <v>8</v>
@@ -1245,7 +1245,7 @@
         <v>6</v>
       </c>
       <c r="U6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V6">
         <v>6</v>
@@ -1254,7 +1254,7 @@
         <v>6</v>
       </c>
       <c r="X6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y6">
         <v>7</v>
@@ -1304,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P7">
         <v>5</v>
@@ -1313,7 +1313,7 @@
         <v>5</v>
       </c>
       <c r="R7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S7">
         <v>3</v>
@@ -1322,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="U7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V7">
         <v>5</v>
@@ -1372,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M8">
         <v>5</v>
@@ -1381,7 +1381,7 @@
         <v>6</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P8">
         <v>6</v>
@@ -1390,7 +1390,7 @@
         <v>9</v>
       </c>
       <c r="R8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S8">
         <v>9</v>
@@ -1399,7 +1399,7 @@
         <v>6</v>
       </c>
       <c r="U8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V8">
         <v>6</v>
@@ -1458,7 +1458,7 @@
         <v>6</v>
       </c>
       <c r="O9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P9">
         <v>6</v>
@@ -1467,7 +1467,7 @@
         <v>7</v>
       </c>
       <c r="R9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S9">
         <v>7</v>
@@ -1476,7 +1476,7 @@
         <v>7</v>
       </c>
       <c r="U9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V9">
         <v>7</v>
@@ -1485,7 +1485,7 @@
         <v>7</v>
       </c>
       <c r="X9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y9">
         <v>8</v>
@@ -1535,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P10">
         <v>8</v>
@@ -1544,7 +1544,7 @@
         <v>8</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S10">
         <v>8</v>
@@ -1612,7 +1612,7 @@
         <v>8</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P11">
         <v>9</v>
@@ -1621,7 +1621,7 @@
         <v>8</v>
       </c>
       <c r="R11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S11">
         <v>9</v>
@@ -1639,7 +1639,7 @@
         <v>8</v>
       </c>
       <c r="X11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y11">
         <v>8</v>
@@ -1662,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1680,7 +1680,7 @@
         <v>6</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M12">
         <v>6</v>
@@ -1689,7 +1689,7 @@
         <v>6</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P12">
         <v>5</v>
@@ -1698,7 +1698,7 @@
         <v>8</v>
       </c>
       <c r="R12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S12">
         <v>8</v>
@@ -1716,7 +1716,7 @@
         <v>6</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y12">
         <v>7</v>
@@ -1766,7 +1766,7 @@
         <v>6</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P13">
         <v>6</v>
@@ -1775,7 +1775,7 @@
         <v>7</v>
       </c>
       <c r="R13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S13">
         <v>7</v>
@@ -1784,7 +1784,7 @@
         <v>6</v>
       </c>
       <c r="U13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V13">
         <v>7</v>
@@ -1843,7 +1843,7 @@
         <v>7</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P14">
         <v>7</v>
@@ -1852,7 +1852,7 @@
         <v>8</v>
       </c>
       <c r="R14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S14">
         <v>8</v>
@@ -1920,7 +1920,7 @@
         <v>10</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P15">
         <v>10</v>
@@ -1929,7 +1929,7 @@
         <v>8</v>
       </c>
       <c r="R15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S15">
         <v>10</v>
@@ -1997,7 +1997,7 @@
         <v>6</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P16">
         <v>9</v>
@@ -2006,7 +2006,7 @@
         <v>8</v>
       </c>
       <c r="R16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S16">
         <v>8</v>
@@ -2015,7 +2015,7 @@
         <v>6</v>
       </c>
       <c r="U16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V16">
         <v>8</v>
@@ -2024,7 +2024,7 @@
         <v>7</v>
       </c>
       <c r="X16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y16">
         <v>7</v>
@@ -2074,7 +2074,7 @@
         <v>6</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P17">
         <v>9</v>
@@ -2083,7 +2083,7 @@
         <v>8</v>
       </c>
       <c r="R17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S17">
         <v>8</v>
@@ -2151,7 +2151,7 @@
         <v>8</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P18">
         <v>10</v>
@@ -2160,7 +2160,7 @@
         <v>7</v>
       </c>
       <c r="R18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S18">
         <v>7</v>
@@ -2169,7 +2169,7 @@
         <v>8</v>
       </c>
       <c r="U18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V18">
         <v>10</v>
@@ -2228,7 +2228,7 @@
         <v>6</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P19">
         <v>5</v>
@@ -2237,7 +2237,7 @@
         <v>7</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S19">
         <v>8</v>
@@ -2255,7 +2255,7 @@
         <v>8</v>
       </c>
       <c r="X19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y19">
         <v>8</v>
@@ -2305,7 +2305,7 @@
         <v>9</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P20">
         <v>9</v>
@@ -2314,7 +2314,7 @@
         <v>9</v>
       </c>
       <c r="R20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S20">
         <v>9</v>
@@ -2332,7 +2332,7 @@
         <v>9</v>
       </c>
       <c r="X20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y20">
         <v>9</v>
@@ -2382,7 +2382,7 @@
         <v>6</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P21">
         <v>5</v>
@@ -2391,7 +2391,7 @@
         <v>7</v>
       </c>
       <c r="R21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S21">
         <v>7</v>
@@ -2409,7 +2409,7 @@
         <v>7</v>
       </c>
       <c r="X21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y21">
         <v>6</v>
@@ -2459,7 +2459,7 @@
         <v>6</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P22">
         <v>5</v>
@@ -2468,7 +2468,7 @@
         <v>5</v>
       </c>
       <c r="R22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S22">
         <v>6</v>
@@ -2536,7 +2536,7 @@
         <v>10</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P23">
         <v>10</v>
@@ -2545,7 +2545,7 @@
         <v>9</v>
       </c>
       <c r="R23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S23">
         <v>10</v>
@@ -2613,7 +2613,7 @@
         <v>6</v>
       </c>
       <c r="O24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P24">
         <v>9</v>
@@ -2622,7 +2622,7 @@
         <v>7</v>
       </c>
       <c r="R24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S24">
         <v>8</v>
@@ -2690,7 +2690,7 @@
         <v>6</v>
       </c>
       <c r="O25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P25">
         <v>5</v>
@@ -2699,7 +2699,7 @@
         <v>4</v>
       </c>
       <c r="R25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S25">
         <v>6</v>
@@ -2708,7 +2708,7 @@
         <v>6</v>
       </c>
       <c r="U25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V25">
         <v>6</v>
@@ -2767,7 +2767,7 @@
         <v>10</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P26">
         <v>10</v>
@@ -2776,7 +2776,7 @@
         <v>9</v>
       </c>
       <c r="R26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S26">
         <v>10</v>
@@ -2817,7 +2817,7 @@
         <v>6</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -2835,7 +2835,7 @@
         <v>6</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M27">
         <v>8</v>
@@ -2844,7 +2844,7 @@
         <v>7</v>
       </c>
       <c r="O27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P27">
         <v>6</v>
@@ -2853,7 +2853,7 @@
         <v>8</v>
       </c>
       <c r="R27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S27">
         <v>9</v>
@@ -2871,7 +2871,7 @@
         <v>7</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y27">
         <v>8</v>
@@ -2921,7 +2921,7 @@
         <v>7</v>
       </c>
       <c r="O28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P28">
         <v>6</v>
@@ -2930,7 +2930,7 @@
         <v>8</v>
       </c>
       <c r="R28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S28">
         <v>8</v>
@@ -2998,7 +2998,7 @@
         <v>7</v>
       </c>
       <c r="O29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P29">
         <v>10</v>
@@ -3007,7 +3007,7 @@
         <v>7</v>
       </c>
       <c r="R29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S29">
         <v>8</v>
@@ -3016,7 +3016,7 @@
         <v>7</v>
       </c>
       <c r="U29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V29">
         <v>9</v>
@@ -3025,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="X29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y29">
         <v>9</v>
@@ -3075,7 +3075,7 @@
         <v>6</v>
       </c>
       <c r="O30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P30">
         <v>5</v>
@@ -3084,7 +3084,7 @@
         <v>9</v>
       </c>
       <c r="R30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S30">
         <v>9</v>
@@ -3143,7 +3143,7 @@
         <v>7</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M31">
         <v>6</v>
@@ -3152,7 +3152,7 @@
         <v>6</v>
       </c>
       <c r="O31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P31">
         <v>7</v>
@@ -3161,7 +3161,7 @@
         <v>7</v>
       </c>
       <c r="R31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S31">
         <v>8</v>
@@ -3170,7 +3170,7 @@
         <v>6</v>
       </c>
       <c r="U31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V31">
         <v>6</v>
@@ -3179,7 +3179,7 @@
         <v>6</v>
       </c>
       <c r="X31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y31">
         <v>6</v>
@@ -3229,7 +3229,7 @@
         <v>7</v>
       </c>
       <c r="O32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P32">
         <v>5</v>
@@ -3238,7 +3238,7 @@
         <v>8</v>
       </c>
       <c r="R32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S32">
         <v>8</v>
@@ -3256,7 +3256,7 @@
         <v>7</v>
       </c>
       <c r="X32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y32">
         <v>7</v>
@@ -3279,7 +3279,7 @@
         <v>5</v>
       </c>
       <c r="F33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G33">
         <v>5</v>
@@ -3297,7 +3297,7 @@
         <v>5</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M33">
         <v>7</v>
@@ -3306,7 +3306,7 @@
         <v>7</v>
       </c>
       <c r="O33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P33">
         <v>7</v>
@@ -3315,7 +3315,7 @@
         <v>8</v>
       </c>
       <c r="R33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S33">
         <v>7</v>
@@ -3324,7 +3324,7 @@
         <v>6</v>
       </c>
       <c r="U33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V33">
         <v>7</v>
@@ -3333,7 +3333,7 @@
         <v>6</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y33">
         <v>6</v>
@@ -3383,7 +3383,7 @@
         <v>5</v>
       </c>
       <c r="O34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P34">
         <v>5</v>
@@ -3392,7 +3392,7 @@
         <v>4</v>
       </c>
       <c r="R34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S34">
         <v>5</v>
@@ -3401,7 +3401,7 @@
         <v>5</v>
       </c>
       <c r="U34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V34">
         <v>5</v>
@@ -3410,7 +3410,7 @@
         <v>5</v>
       </c>
       <c r="X34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y34">
         <v>5</v>
@@ -3460,7 +3460,7 @@
         <v>9</v>
       </c>
       <c r="O35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P35">
         <v>9</v>
@@ -3469,7 +3469,7 @@
         <v>10</v>
       </c>
       <c r="R35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S35">
         <v>10</v>
@@ -3537,7 +3537,7 @@
         <v>6</v>
       </c>
       <c r="O36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P36">
         <v>5</v>
@@ -3546,7 +3546,7 @@
         <v>6</v>
       </c>
       <c r="R36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S36">
         <v>5</v>
@@ -3614,7 +3614,7 @@
         <v>6</v>
       </c>
       <c r="O37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P37">
         <v>8</v>
@@ -3623,7 +3623,7 @@
         <v>10</v>
       </c>
       <c r="R37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S37">
         <v>10</v>
@@ -3691,7 +3691,7 @@
         <v>6</v>
       </c>
       <c r="O38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P38">
         <v>6</v>
@@ -3700,7 +3700,7 @@
         <v>10</v>
       </c>
       <c r="R38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S38">
         <v>7</v>
@@ -3718,7 +3718,7 @@
         <v>8</v>
       </c>
       <c r="X38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y38">
         <v>7</v>
@@ -3768,7 +3768,7 @@
         <v>7</v>
       </c>
       <c r="O39">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P39">
         <v>7</v>
@@ -3777,7 +3777,7 @@
         <v>8</v>
       </c>
       <c r="R39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S39">
         <v>6</v>
@@ -3786,7 +3786,7 @@
         <v>6</v>
       </c>
       <c r="U39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V39">
         <v>6</v>
@@ -3836,7 +3836,7 @@
         <v>5</v>
       </c>
       <c r="L40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M40">
         <v>5</v>
@@ -3845,7 +3845,7 @@
         <v>5</v>
       </c>
       <c r="O40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P40">
         <v>5</v>
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="R40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S40">
         <v>5</v>
@@ -3863,7 +3863,7 @@
         <v>6</v>
       </c>
       <c r="U40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V40">
         <v>5</v>
@@ -3872,7 +3872,7 @@
         <v>5</v>
       </c>
       <c r="X40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y40">
         <v>5</v>
@@ -3922,7 +3922,7 @@
         <v>9</v>
       </c>
       <c r="O41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P41">
         <v>8</v>
@@ -3931,7 +3931,7 @@
         <v>10</v>
       </c>
       <c r="R41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S41">
         <v>8</v>
@@ -3999,7 +3999,7 @@
         <v>8</v>
       </c>
       <c r="O42">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P42">
         <v>7</v>
@@ -4008,7 +4008,7 @@
         <v>10</v>
       </c>
       <c r="R42">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S42">
         <v>10</v>
@@ -4076,7 +4076,7 @@
         <v>10</v>
       </c>
       <c r="O43">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P43">
         <v>9</v>
@@ -4085,7 +4085,7 @@
         <v>10</v>
       </c>
       <c r="R43">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S43">
         <v>10</v>
@@ -4153,7 +4153,7 @@
         <v>5</v>
       </c>
       <c r="O44">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P44">
         <v>5</v>
@@ -4162,7 +4162,7 @@
         <v>4</v>
       </c>
       <c r="R44">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S44">
         <v>5</v>
@@ -4180,7 +4180,7 @@
         <v>6</v>
       </c>
       <c r="X44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y44">
         <v>7</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -4254,48 +4254,48 @@
         <v>34</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>82.93000000000001</v>
       </c>
       <c r="G2">
-        <v>9.76</v>
+        <v>17.07</v>
       </c>
       <c r="H2">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>17.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>41</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>82.93000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="G3">
-        <v>17.07</v>
+        <v>12.2</v>
       </c>
       <c r="H3">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
@@ -4315,19 +4315,19 @@
         <v>41</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>87.8</v>
+        <v>90.23999999999999</v>
       </c>
       <c r="G4">
-        <v>12.2</v>
+        <v>9.76</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -4359,7 +4359,7 @@
         <v>9.76</v>
       </c>
       <c r="H5">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -4391,7 +4391,7 @@
         <v>9.76</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -4411,19 +4411,19 @@
         <v>41</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>90.23999999999999</v>
+        <v>95.12</v>
       </c>
       <c r="G7">
-        <v>9.76</v>
+        <v>4.88</v>
       </c>
       <c r="H7">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4439,7 +4439,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4467,146 +4467,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>20330051920220</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>20330051920222</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>20330051920240</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>20330051920244</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>20330051920247</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>20330051920251</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>20330051920255</v>
-      </c>
-      <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4645,132 +4505,132 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920220</v>
+        <v>20330051920187</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920222</v>
+        <v>20330051920220</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920240</v>
+        <v>20330051920221</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920244</v>
+        <v>20330051920374</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920247</v>
+        <v>20330051920222</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920251</v>
+        <v>20330051920223</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920255</v>
+        <v>20330051920224</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920187</v>
+        <v>20330051920225</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
         <v>142</v>
@@ -4781,13 +4641,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920221</v>
+        <v>20330051920375</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
         <v>143</v>
@@ -4798,13 +4658,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920374</v>
+        <v>20330051920226</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>144</v>
@@ -4815,13 +4675,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920223</v>
+        <v>20330051920227</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
         <v>145</v>
@@ -4832,13 +4692,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920224</v>
+        <v>20330051920228</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
         <v>146</v>
@@ -4849,13 +4709,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920225</v>
+        <v>20330051920229</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
         <v>147</v>
@@ -4866,13 +4726,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920375</v>
+        <v>20330051920230</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
         <v>148</v>
@@ -4883,13 +4743,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920226</v>
+        <v>20330051920231</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
         <v>149</v>
@@ -4900,13 +4760,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920227</v>
+        <v>20330051920232</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
         <v>150</v>
@@ -4917,13 +4777,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920228</v>
+        <v>20330051920233</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
         <v>151</v>
@@ -4934,13 +4794,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920229</v>
+        <v>20330051920234</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
         <v>152</v>
@@ -4951,13 +4811,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920230</v>
+        <v>20330051920376</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
         <v>153</v>
@@ -4968,13 +4828,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920231</v>
+        <v>20330051920236</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
         <v>154</v>
@@ -4985,13 +4845,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920232</v>
+        <v>20330051920237</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
         <v>155</v>
@@ -5002,13 +4862,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920233</v>
+        <v>20330051920238</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
         <v>156</v>
@@ -5019,13 +4879,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920234</v>
+        <v>20330051920239</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
         <v>157</v>
@@ -5036,13 +4896,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920376</v>
+        <v>20330051920240</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
         <v>158</v>
@@ -5053,13 +4913,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920236</v>
+        <v>20330051920241</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
         <v>159</v>
@@ -5070,13 +4930,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920237</v>
+        <v>20330051920243</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
         <v>160</v>
@@ -5087,13 +4947,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920238</v>
+        <v>20330051920244</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
         <v>161</v>
@@ -5104,13 +4964,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920239</v>
+        <v>20330051920245</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="D29" t="s">
         <v>162</v>
@@ -5121,13 +4981,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920241</v>
+        <v>20330051920246</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
         <v>163</v>
@@ -5138,13 +4998,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920243</v>
+        <v>20330051920247</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
         <v>164</v>
@@ -5155,13 +5015,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920245</v>
+        <v>20330051920248</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
         <v>165</v>
@@ -5172,13 +5032,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920246</v>
+        <v>20330051920249</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
         <v>166</v>
@@ -5189,13 +5049,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920248</v>
+        <v>20330051920250</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
         <v>167</v>
@@ -5206,13 +5066,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920249</v>
+        <v>20330051920251</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D35" t="s">
         <v>168</v>
@@ -5223,13 +5083,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>20330051920250</v>
+        <v>20330051920252</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
         <v>169</v>
@@ -5240,13 +5100,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>20330051920252</v>
+        <v>20330051920253</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
         <v>170</v>
@@ -5257,13 +5117,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>20330051920253</v>
+        <v>20330051920255</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
         <v>171</v>
@@ -5277,10 +5137,10 @@
         <v>20330051920256</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D39" t="s">
         <v>172</v>
@@ -5294,10 +5154,10 @@
         <v>20330051920257</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
         <v>173</v>
@@ -5311,10 +5171,10 @@
         <v>20330051920258</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
         <v>174</v>
@@ -5328,10 +5188,10 @@
         <v>20330051920259</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
         <v>175</v>
@@ -5347,7 +5207,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5382,22 +5242,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920236</v>
+        <v>20330051920220</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -5405,45 +5265,45 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920236</v>
+        <v>20330051920220</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920240</v>
+        <v>20330051920236</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -5451,45 +5311,45 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920240</v>
+        <v>20330051920236</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920251</v>
+        <v>20330051920244</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -5497,25 +5357,25 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920251</v>
+        <v>20330051920244</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5523,19 +5383,19 @@
         <v>20330051920233</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -5546,19 +5406,19 @@
         <v>20330051920237</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -5566,47 +5426,93 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920246</v>
+        <v>20330051920240</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
+        <v>20330051920246</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920251</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
         <v>20330051920259</v>
       </c>
-      <c r="B11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
         <v>175</v>
       </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11">
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13">
         <v>5</v>
       </c>
     </row>

--- a/grupos/2ALCM - Estadisticos 20202.xlsx
+++ b/grupos/2ALCM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="176">
   <si>
     <t>Materia</t>
   </si>
@@ -206,19 +206,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Morales Vallejo Jorge Luis</t>
+  </si>
+  <si>
     <t>Caballero Rosas María Teresa</t>
   </si>
   <si>
-    <t>Morales Vallejo Jorge Luis</t>
+    <t>García Sánchez Magda Bexabe</t>
+  </si>
+  <si>
+    <t>González Altamirano Victorino Juventino</t>
   </si>
   <si>
     <t>Rosas Aguilar Claudia Leonor</t>
-  </si>
-  <si>
-    <t>González Altamirano Victorino Juventino</t>
-  </si>
-  <si>
-    <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
     <t>NC</t>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -4263,7 +4263,7 @@
         <v>17.07</v>
       </c>
       <c r="H2">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4277,25 +4277,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>41</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>87.8</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="G3">
-        <v>12.2</v>
+        <v>7.32</v>
       </c>
       <c r="H3">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
@@ -4315,19 +4315,19 @@
         <v>41</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>90.23999999999999</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="G4">
-        <v>9.76</v>
+        <v>7.32</v>
       </c>
       <c r="H4">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -4347,19 +4347,19 @@
         <v>41</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>90.23999999999999</v>
+        <v>95.12</v>
       </c>
       <c r="G5">
-        <v>9.76</v>
+        <v>4.88</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4379,19 +4379,19 @@
         <v>41</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>90.23999999999999</v>
+        <v>97.56</v>
       </c>
       <c r="G6">
-        <v>9.76</v>
+        <v>2.44</v>
       </c>
       <c r="H6">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -4411,19 +4411,19 @@
         <v>41</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>95.12</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>4.88</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -5207,7 +5207,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5237,50 +5237,50 @@
         <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920220</v>
+        <v>20330051920237</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920220</v>
+        <v>20330051920237</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -5288,114 +5288,114 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920236</v>
+        <v>20330051920374</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920236</v>
+        <v>20330051920233</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920244</v>
+        <v>20330051920243</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920244</v>
+        <v>20330051920247</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920233</v>
+        <v>20330051920251</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -5403,116 +5403,24 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920237</v>
+        <v>20330051920259</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
       </c>
       <c r="G9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920240</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920246</v>
-      </c>
-      <c r="B11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920251</v>
-      </c>
-      <c r="B12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920259</v>
-      </c>
-      <c r="B13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13">
         <v>5</v>
       </c>
     </row>
